--- a/Formatted Data/data_postwar.xlsx
+++ b/Formatted Data/data_postwar.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Sarajevo District</t>
   </si>
   <si>
-    <t xml:space="preserve">Split by IEBL</t>
+    <t xml:space="preserve">Municipal Borders Modified</t>
   </si>
   <si>
     <t xml:space="preserve">Municipality Area, Post-War</t>
